--- a/data/trans_dic/P11_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P11_R2-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01697819938399461</v>
+        <v>0.01649627450645983</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04188619815571706</v>
+        <v>0.04231489144648792</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03113927184860354</v>
+        <v>0.03181007652488788</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08355157403814652</v>
+        <v>0.08378363124643642</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01820009524050462</v>
+        <v>0.01917069824321427</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09186701268554008</v>
+        <v>0.08972862994995022</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.09222757787643163</v>
+        <v>0.08994730804261619</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.121317278178132</v>
+        <v>0.1196722005892333</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02099043446547816</v>
+        <v>0.02073882507483465</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07088436875134708</v>
+        <v>0.07199477967032657</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06530771280716806</v>
+        <v>0.06514945400358915</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1079525665563231</v>
+        <v>0.1080801409839073</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04123107244980648</v>
+        <v>0.04316216888485112</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07902311507451938</v>
+        <v>0.07868533082568994</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06180661369978178</v>
+        <v>0.06381359348723908</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1298186972308419</v>
+        <v>0.1288715736265416</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04522970287378751</v>
+        <v>0.04597884938993194</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1430611742050693</v>
+        <v>0.1412986683089646</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1427246505968388</v>
+        <v>0.1422864474493092</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1563495935670023</v>
+        <v>0.1563455410900023</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03867757390427604</v>
+        <v>0.03897864638165253</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1020735278716981</v>
+        <v>0.1032439077221585</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.09512943593213945</v>
+        <v>0.09555304453291318</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1378811238096864</v>
+        <v>0.1387910284387418</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02998578297405525</v>
+        <v>0.02958380665181173</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03889400817254006</v>
+        <v>0.03677687562406894</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02655707075120962</v>
+        <v>0.02579894209458461</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05140241401123808</v>
+        <v>0.051517438918744</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02954645354698998</v>
+        <v>0.0291308370853277</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08293080147868762</v>
+        <v>0.08176578743270578</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06330005700629113</v>
+        <v>0.06280071891144155</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1115216956138716</v>
+        <v>0.1108750316926446</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03246350487645422</v>
+        <v>0.03227589222448279</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06429996267318998</v>
+        <v>0.0643959049976278</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04754381759729433</v>
+        <v>0.0474494938984625</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.08524793925549334</v>
+        <v>0.08521480295760168</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05574635519402168</v>
+        <v>0.05422357498799432</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06949607373830097</v>
+        <v>0.06616566991121578</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05036664504572579</v>
+        <v>0.05179130874748939</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08075138559492621</v>
+        <v>0.08045575325682415</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05682843879879789</v>
+        <v>0.05690964940975025</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1231086731091968</v>
+        <v>0.1198274622825896</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1005170495729737</v>
+        <v>0.09987654026643193</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1450247020192245</v>
+        <v>0.1464157197746622</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05042933960980488</v>
+        <v>0.05129872325252118</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.08830328692425148</v>
+        <v>0.08791683010344095</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07033782143131176</v>
+        <v>0.06990189791715944</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1081630617169696</v>
+        <v>0.1077587203781634</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.03684386948845118</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.06278223532679268</v>
+        <v>0.06278223532679267</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.08578770605177755</v>
@@ -957,7 +957,7 @@
         <v>0.08984563578272986</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.07825285240611046</v>
+        <v>0.07825285240611045</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.06143896112275402</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0240755228546321</v>
+        <v>0.02297342118253127</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02682059671374182</v>
+        <v>0.02619201516865338</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02421909536289968</v>
+        <v>0.02504946303164362</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04447845525731069</v>
+        <v>0.04667091385487765</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06781627765380328</v>
+        <v>0.06699177100715534</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07229400012494938</v>
+        <v>0.07304510597213998</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06887539763526404</v>
+        <v>0.06994520988607375</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06369580256066813</v>
+        <v>0.06340604797997738</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05019351121971262</v>
+        <v>0.04839454051218395</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.0556756049098437</v>
+        <v>0.05492662117262075</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0512781582324669</v>
+        <v>0.05201290425823048</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0595204364583754</v>
+        <v>0.0594680198573974</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05423318342650617</v>
+        <v>0.05465472305860005</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06033760250802379</v>
+        <v>0.05973160821458044</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05343928112164793</v>
+        <v>0.05367113355001182</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08157974585549756</v>
+        <v>0.08430199623039608</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1094473285009943</v>
+        <v>0.1099107083580722</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1182724223091104</v>
+        <v>0.1173901346985133</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1137270069080469</v>
+        <v>0.1151071971628372</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.09465284406023479</v>
+        <v>0.09438892032426162</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07690410481997741</v>
+        <v>0.07495491264714503</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.08203217102168732</v>
+        <v>0.08258168125185932</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.07724825608721965</v>
+        <v>0.07869544803962622</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.08445427498815435</v>
+        <v>0.08217827986204829</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.04811188241650534</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.09091898060247312</v>
+        <v>0.09091898060247314</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.0538839804470858</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0223080668890043</v>
+        <v>0.02354728095012028</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03953580054613268</v>
+        <v>0.04012131021237121</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03455601257892119</v>
+        <v>0.03548803153338188</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0760808393282482</v>
+        <v>0.0745560150162488</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04175738054802329</v>
+        <v>0.04085934452522804</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0728402607725215</v>
+        <v>0.07280942218424435</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.07201402049541289</v>
+        <v>0.07220295090843852</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1299302605712329</v>
+        <v>0.132237696844119</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03629969871517139</v>
+        <v>0.036053403432441</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06131932738789341</v>
+        <v>0.06060812670024517</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.05887280440210337</v>
+        <v>0.05904289065783951</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.109434082552544</v>
+        <v>0.1097674312510425</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04427481860449711</v>
+        <v>0.04523907830003782</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07118935538250927</v>
+        <v>0.07059006118787543</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06347055068078362</v>
+        <v>0.06444760510928084</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1094818171267126</v>
+        <v>0.1103501144571269</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06946837805002135</v>
+        <v>0.06819786127805352</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1099198861716321</v>
+        <v>0.1093802871311375</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1101062282653683</v>
+        <v>0.1104569764582654</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1641161429451841</v>
+        <v>0.1656868401091787</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05477553399502587</v>
+        <v>0.05418668754414944</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08502904746910789</v>
+        <v>0.084821675051411</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08290607042080263</v>
+        <v>0.08183572477301171</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1346259296510964</v>
+        <v>0.1341144422953838</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02951964134194695</v>
+        <v>0.02907678024919414</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04273204408488152</v>
+        <v>0.04373249883008606</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03482911346942774</v>
+        <v>0.03458501080628115</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07029117548749465</v>
+        <v>0.07101535571182008</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04438887615279032</v>
+        <v>0.04483233428417258</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08911752629493422</v>
+        <v>0.08917548409767231</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.08130491345883166</v>
+        <v>0.08137765738361995</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1159251507301171</v>
+        <v>0.1166299673061607</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03894189837299921</v>
+        <v>0.03906096170145536</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.06904813381496258</v>
+        <v>0.06913295357508145</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.06092423118503892</v>
+        <v>0.06061502222879609</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0963542912579205</v>
+        <v>0.09676330791643149</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04267059817343825</v>
+        <v>0.0417017611876492</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05899237088344188</v>
+        <v>0.05996548669425562</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04857821135948649</v>
+        <v>0.04869102937543862</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.08796790491231071</v>
+        <v>0.08874072557042276</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05964776198267376</v>
+        <v>0.06002293027141101</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1091449138385561</v>
+        <v>0.108887025230179</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1024354668091481</v>
+        <v>0.1023725688368086</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1322513404187101</v>
+        <v>0.1344811845187305</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04886617916244719</v>
+        <v>0.04917504851820129</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.08167479511650817</v>
+        <v>0.08274458088182093</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.0739373997854991</v>
+        <v>0.07373454442122625</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1086882462007622</v>
+        <v>0.1097450438869753</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>11783</v>
+        <v>11449</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>29229</v>
+        <v>29528</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>20834</v>
+        <v>21282</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>57626</v>
+        <v>57786</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>12528</v>
+        <v>13196</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>63864</v>
+        <v>62377</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>61429</v>
+        <v>59910</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>88939</v>
+        <v>87733</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>29016</v>
+        <v>28669</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>98741</v>
+        <v>100288</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>87193</v>
+        <v>86982</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>153597</v>
+        <v>153778</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>28615</v>
+        <v>29955</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>55144</v>
+        <v>54908</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>41352</v>
+        <v>42694</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>89537</v>
+        <v>88883</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>31134</v>
+        <v>31650</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>99453</v>
+        <v>98227</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>95063</v>
+        <v>94771</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>114622</v>
+        <v>114619</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>53466</v>
+        <v>53883</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>142188</v>
+        <v>143818</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>127008</v>
+        <v>127574</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>196180</v>
+        <v>197475</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>28840</v>
+        <v>28454</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>39421</v>
+        <v>37275</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>26981</v>
+        <v>26211</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>53782</v>
+        <v>53903</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>28613</v>
+        <v>28210</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>85435</v>
+        <v>84235</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>65822</v>
+        <v>65303</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>119239</v>
+        <v>118548</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>62661</v>
+        <v>62299</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>131412</v>
+        <v>131608</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>97741</v>
+        <v>97547</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>180342</v>
+        <v>180272</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>53617</v>
+        <v>52152</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>70437</v>
+        <v>67062</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>51171</v>
+        <v>52618</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>84490</v>
+        <v>84181</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>55032</v>
+        <v>55111</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>126826</v>
+        <v>123445</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>104522</v>
+        <v>103856</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>155060</v>
+        <v>156548</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>97338</v>
+        <v>99016</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>180468</v>
+        <v>179679</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>144601</v>
+        <v>143705</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>228819</v>
+        <v>227964</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>16335</v>
+        <v>15588</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>20236</v>
+        <v>19762</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>18230</v>
+        <v>18855</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>35719</v>
+        <v>37480</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>46376</v>
+        <v>45812</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>56185</v>
+        <v>56769</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>53619</v>
+        <v>54452</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>51696</v>
+        <v>51460</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>68381</v>
+        <v>65930</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>85278</v>
+        <v>84130</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>78518</v>
+        <v>79643</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>96106</v>
+        <v>96022</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>36798</v>
+        <v>37084</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>45526</v>
+        <v>45068</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>40225</v>
+        <v>40400</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>65514</v>
+        <v>67701</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>74845</v>
+        <v>75161</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>91918</v>
+        <v>91233</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>88536</v>
+        <v>89611</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>76820</v>
+        <v>76606</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>104770</v>
+        <v>102115</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>125648</v>
+        <v>126489</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>118284</v>
+        <v>120500</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>136366</v>
+        <v>132691</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>21019</v>
+        <v>22187</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>37315</v>
+        <v>37867</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>32202</v>
+        <v>33071</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>75325</v>
+        <v>73815</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>43370</v>
+        <v>42437</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>76621</v>
+        <v>76588</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>74721</v>
+        <v>74917</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>145116</v>
+        <v>147693</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>71904</v>
+        <v>71416</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>122376</v>
+        <v>120957</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>115949</v>
+        <v>116284</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>230571</v>
+        <v>231273</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>41717</v>
+        <v>42625</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>67190</v>
+        <v>66624</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>59148</v>
+        <v>60058</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>108394</v>
+        <v>109253</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>72151</v>
+        <v>70831</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>115625</v>
+        <v>115057</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>114245</v>
+        <v>114609</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>183298</v>
+        <v>185052</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>108501</v>
+        <v>107335</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>169694</v>
+        <v>169280</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>163282</v>
+        <v>161174</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>283649</v>
+        <v>282571</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>96722</v>
+        <v>95271</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>145703</v>
+        <v>149114</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>117361</v>
+        <v>116539</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>248067</v>
+        <v>250623</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>149999</v>
+        <v>151497</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>316763</v>
+        <v>316969</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>286355</v>
+        <v>286611</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>432493</v>
+        <v>435122</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>259187</v>
+        <v>259980</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>480860</v>
+        <v>481451</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>419867</v>
+        <v>417736</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>699526</v>
+        <v>702495</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>139812</v>
+        <v>136638</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>201146</v>
+        <v>204464</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>163691</v>
+        <v>164071</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>310451</v>
+        <v>313178</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>201562</v>
+        <v>202829</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>387949</v>
+        <v>387033</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>360777</v>
+        <v>360555</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>493403</v>
+        <v>501722</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>325241</v>
+        <v>327296</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>568794</v>
+        <v>576244</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>509548</v>
+        <v>508150</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>789069</v>
+        <v>796742</v>
       </c>
     </row>
     <row r="24">
